--- a/biology/Botanique/Zygogynum/Zygogynum.xlsx
+++ b/biology/Botanique/Zygogynum/Zygogynum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygogynum est un genre d'arbres et d'arbustes de la famille des Winteraceae.
-Ce genre compte une cinquantaine d'espèces en Australie, Nouvelle-Guinée, aux Îles Salomon, Lord Howe. 18 espèces sont endémiques à la Nouvelle-Calédonie[1].  
+Ce genre compte une cinquantaine d'espèces en Australie, Nouvelle-Guinée, aux Îles Salomon, Lord Howe. 18 espèces sont endémiques à la Nouvelle-Calédonie.  
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces de Nouvelle-Calédonie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Zygogynum acsmithii
 Zygogynum amplexicaule
@@ -560,9 +574,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 juin 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 juin 2013) :
 Zygogynum acsmithii
 Zygogynum amplexicaule
 Zygogynum baillonii
@@ -576,7 +592,7 @@
 Zygogynum pomiferum
 Zygogynum tanyostigma
 Zygogynum vinkii
-Selon Tropicos                                           (11 juin 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Zygogynum acsmithii Vink
 Zygogynum amplexicaule (Parm.) Vink
 Zygogynum baillonii Tiegh.
